--- a/whether.xlsx
+++ b/whether.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smoha\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B8847B-1345-4769-84FB-DC7698080591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3135A2B0-433D-4685-8108-D05894659A37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4104" yWindow="1488" windowWidth="17280" windowHeight="8880" xr2:uid="{941474A5-4C59-4C51-A1AB-AB0B68A8CC2C}"/>
+    <workbookView xWindow="4500" yWindow="2508" windowWidth="17280" windowHeight="8880" xr2:uid="{941474A5-4C59-4C51-A1AB-AB0B68A8CC2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="12">
   <si>
     <t>Day</t>
   </si>
@@ -49,14 +49,34 @@
   </si>
   <si>
     <t xml:space="preserve">snow </t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>HYD</t>
+  </si>
+  <si>
+    <t>RCB</t>
+  </si>
+  <si>
+    <t>CSK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -84,9 +104,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -401,116 +422,189 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{936719E9-D0C3-4EBE-B192-FEE7B8B1DA83}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>42736</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
         <v>32</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>42767</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>35</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>42795</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
         <v>28</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>42826</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
         <v>24</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>7</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>42856</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
         <v>32</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>42887</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
         <v>32</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>2</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>42917</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>29</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>42948</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>34</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>42979</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>35</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
